--- a/ECE 2020/dataMapasECEDiscapacidad1.xlsx
+++ b/ECE 2020/dataMapasECEDiscapacidad1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-45" windowWidth="19425" windowHeight="10365" tabRatio="500"/>
+    <workbookView xWindow="-105" yWindow="15" windowWidth="19425" windowHeight="10305" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dataMapasECE" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>IDDPTO</t>
   </si>
@@ -187,43 +187,40 @@
     <t>DEPARTAMEN1</t>
   </si>
   <si>
-    <t>APURIMAC --&gt; 3</t>
-  </si>
-  <si>
-    <t>AREQUIPA --&gt; 2</t>
-  </si>
-  <si>
-    <t>CAJAMARCA --&gt; 2</t>
-  </si>
-  <si>
-    <t>CALLAO --&gt; 1</t>
-  </si>
-  <si>
-    <t>HUANUCO --&gt; 1</t>
-  </si>
-  <si>
-    <t>LA LIBERTAD --&gt; 2</t>
-  </si>
-  <si>
-    <t>LIMA --&gt; 9</t>
-  </si>
-  <si>
-    <t>LIMA PROVINCIAS --&gt; 1</t>
-  </si>
-  <si>
-    <t>LORETO --&gt; 2</t>
-  </si>
-  <si>
-    <t>MOQUEGUA --&gt; 1</t>
-  </si>
-  <si>
-    <t>PASCO --&gt; 3</t>
-  </si>
-  <si>
-    <t>PUNO --&gt; 1</t>
-  </si>
-  <si>
-    <t>TUMBES --&gt; 1</t>
+    <t>APURIMAC -6.34</t>
+  </si>
+  <si>
+    <t>AREQUIPA -11.15</t>
+  </si>
+  <si>
+    <t>CAJAMARCA -10.54</t>
+  </si>
+  <si>
+    <t>CALLAO -11.63</t>
+  </si>
+  <si>
+    <t>HUANUCO -10.52</t>
+  </si>
+  <si>
+    <t>LA LIBERTAD -10.22</t>
+  </si>
+  <si>
+    <t>LIMA -11.42</t>
+  </si>
+  <si>
+    <t>LORETO -8.23</t>
+  </si>
+  <si>
+    <t>MOQUEGUA -11.20</t>
+  </si>
+  <si>
+    <t>PASCO -6.46</t>
+  </si>
+  <si>
+    <t>PUNO -15.55</t>
+  </si>
+  <si>
+    <t>TUMBES -9.87</t>
   </si>
 </sst>
 </file>
@@ -552,7 +549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -667,6 +664,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -718,9 +730,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Énfasis1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -1037,7 +1050,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1048,13 +1061,13 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1079,7 +1092,9 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1088,7 +1103,9 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1101,7 +1118,7 @@
         <v>56</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>-6.3351175092987502</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1115,7 +1132,7 @@
         <v>57</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>-11.152828745009662</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1125,7 +1142,9 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1138,7 +1157,7 @@
         <v>58</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>-10.544286098268961</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1152,7 +1171,7 @@
         <v>59</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>-11.625628949043548</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1162,7 +1181,9 @@
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1171,7 +1192,9 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1183,8 +1206,8 @@
       <c r="C11" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
+      <c r="D11" s="2">
+        <v>-10.518860629809099</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1194,7 +1217,9 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1203,7 +1228,9 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1216,7 +1243,7 @@
         <v>61</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>-10.218646336686705</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1226,7 +1253,9 @@
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1239,7 +1268,7 @@
         <v>62</v>
       </c>
       <c r="D16" s="1">
-        <v>9</v>
+        <v>-11.424750400399972</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1250,10 +1279,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>-11.424750400399972</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1264,10 +1293,10 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
+        <v>-8.2312647844155276</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1277,7 +1306,9 @@
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1287,10 +1318,10 @@
         <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>-11.196958682355461</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1301,10 +1332,10 @@
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1">
-        <v>3</v>
+        <v>-6.4598376927616066</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1314,7 +1345,9 @@
       <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -1324,10 +1357,10 @@
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>-15.554815314662218</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1337,7 +1370,9 @@
       <c r="B24" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -1346,7 +1381,9 @@
       <c r="B25" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1356,10 +1393,10 @@
         <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>-9.8678163229560507</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">

--- a/ECE 2020/dataMapasECEDiscapacidad1.xlsx
+++ b/ECE 2020/dataMapasECEDiscapacidad1.xlsx
@@ -1050,7 +1050,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1406,7 +1406,9 @@
       <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D27">

--- a/ECE 2020/dataMapasECEDiscapacidad1.xlsx
+++ b/ECE 2020/dataMapasECEDiscapacidad1.xlsx
@@ -1050,7 +1050,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
